--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -2507,15 +2507,15 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
